--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashad Ahamed\Desktop\CampusEats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42178DF-4790-4AD8-B37D-34A92830BC74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274D626-0F4A-4A34-828C-BC7D9B79AC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="5738" xr2:uid="{12A39351-B459-40A5-AE02-C38EBE9EB917}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>userid</t>
   </si>
@@ -48,12 +48,6 @@
     <t>restid</t>
   </si>
   <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>Reviews</t>
   </si>
   <si>
@@ -72,21 +66,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>Orders(Rest)</t>
-  </si>
-  <si>
-    <t>Orders(User)</t>
-  </si>
-  <si>
     <t>orderid</t>
   </si>
   <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>received/none</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -96,10 +78,43 @@
     <t>image</t>
   </si>
   <si>
-    <t>Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout </t>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>menuid</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Order Item</t>
+  </si>
+  <si>
+    <t>orderitemid</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>reviewid</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>paymentid</t>
+  </si>
+  <si>
+    <t>paymethod</t>
+  </si>
+  <si>
+    <t>paystatus</t>
   </si>
 </sst>
 </file>
@@ -468,45 +483,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648F4B3-834A-4875-B3F7-E735123E7C8F}">
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.06640625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.53125" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.19921875" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="4.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.59765625" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
@@ -518,116 +540,189 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    </row>
     <row r="12" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="13" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="10:10" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="J17" s="2"/>
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashad Ahamed\Desktop\CampusEats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274D626-0F4A-4A34-828C-BC7D9B79AC81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D2D37-2030-4884-9A8F-38621DBB7370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="5738" xr2:uid="{12A39351-B459-40A5-AE02-C38EBE9EB917}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>orderid</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Orders</t>
   </si>
   <si>
-    <t>Order Item</t>
-  </si>
-  <si>
     <t>orderitemid</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>payment</t>
-  </si>
-  <si>
     <t>paymentid</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>paystatus</t>
+  </si>
+  <si>
+    <t>MenuItems</t>
+  </si>
+  <si>
+    <t>OrderItems</t>
+  </si>
+  <si>
+    <t>payments</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="B1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -516,19 +516,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
@@ -540,27 +540,27 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
@@ -595,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -612,36 +612,36 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
     <row r="15" spans="2:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="2:8" s="2" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5"/>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="H20" s="2"/>
